--- a/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_0.xlsx
+++ b/Data/Test MQ/DPV Analysis/Analysis Files/compiledAnalysis_0.xlsx
@@ -439,7 +439,7 @@
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,14 +486,14 @@
         <v>-0.118131</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-4.163336342344337e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.228</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.7440700617477765</v>
+        <v>-0.7530499289493578</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.119037261904762</v>
+        <v>-0.1190372619047619</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.1185492867608582</v>
+        <v>-0.1182686659108088</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0004879751439037794</v>
+        <v>-0.0007685959939531667</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.336</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.007344109366823559</v>
+        <v>-0.009212520786092193</v>
       </c>
     </row>
     <row r="4">
@@ -525,17 +525,17 @@
         <v>-0.1212367619047619</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1189675735217164</v>
+        <v>-0.1184063318216175</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.002269188383045587</v>
+        <v>-0.002830430083144389</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.416</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.002862256933542751</v>
+        <v>-0.02046425170068034</v>
       </c>
     </row>
     <row r="5">
@@ -546,18 +546,14 @@
         <v>-0.1242663333333334</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.1193858602825746</v>
+        <v>-0.1185439977324263</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.004880473050758838</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>-0.01729871951857681</v>
-      </c>
+        <v>-0.005722335600907083</v>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -567,10 +563,10 @@
         <v>-0.1282642857142858</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.1198041470434327</v>
+        <v>-0.1186816636432351</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.008460138670853032</v>
+        <v>-0.009582622071050692</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -584,10 +580,10 @@
         <v>-0.1298649047619048</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1202224338042909</v>
+        <v>-0.1188193295540439</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.009642470957613891</v>
+        <v>-0.01104557520786097</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -601,10 +597,10 @@
         <v>-0.137066761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.1206407205651491</v>
+        <v>-0.1189569954648526</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01642604133961285</v>
+        <v>-0.01810976643990936</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -618,10 +614,10 @@
         <v>-0.1404017142857144</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.1210590073260073</v>
+        <v>-0.1190946613756614</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.01934270695970709</v>
+        <v>-0.02130705291005303</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -635,10 +631,10 @@
         <v>-0.146735380952381</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.1214772940868655</v>
+        <v>-0.1192323272864702</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02525808686551553</v>
+        <v>-0.02750305366591088</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -652,10 +648,10 @@
         <v>-0.1547334285714287</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.1218955808477237</v>
+        <v>-0.1193699931972789</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03283784772370497</v>
+        <v>-0.03536343537414974</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -669,10 +665,10 @@
         <v>-0.1607347142857144</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.1223138676085819</v>
+        <v>-0.1195076591080877</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03842084667713251</v>
+        <v>-0.0412270551776267</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -686,10 +682,10 @@
         <v>-0.1673976190476192</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.1227321543694401</v>
+        <v>-0.1196453250188965</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.04466546467817911</v>
+        <v>-0.04775229402872275</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -703,10 +699,10 @@
         <v>-0.1767970000000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.1231504411302983</v>
+        <v>-0.1197829909297052</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05364655886970186</v>
+        <v>-0.05701400907029491</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -720,10 +716,10 @@
         <v>-0.1834681904761906</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1235687278911564</v>
+        <v>-0.119920656840514</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.05989946258503412</v>
+        <v>-0.06354753363567656</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -737,10 +733,10 @@
         <v>-0.2006726666666668</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1239870146520146</v>
+        <v>-0.1200583227513228</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07668565201465213</v>
+        <v>-0.080614343915344</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -754,10 +750,10 @@
         <v>-0.2190072857142858</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1244053014128728</v>
+        <v>-0.1201959886621315</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09460198430141299</v>
+        <v>-0.09881129705215427</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -771,10 +767,10 @@
         <v>-0.2334065714285716</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.124823588173731</v>
+        <v>-0.1203336545729403</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1085829832548406</v>
+        <v>-0.1130729168556313</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -788,10 +784,10 @@
         <v>-0.2512046666666669</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1252418749345892</v>
+        <v>-0.1204713204837491</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1259627917320776</v>
+        <v>-0.1307333461829178</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -805,10 +801,10 @@
         <v>-0.2747329523809526</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1256601616954474</v>
+        <v>-0.1206089863945579</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1490727906855052</v>
+        <v>-0.1541239659863947</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -822,10 +818,10 @@
         <v>-0.3068659523809526</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1260784484563056</v>
+        <v>-0.1207466523053666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.180787503924647</v>
+        <v>-0.186119300075586</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -839,10 +835,10 @@
         <v>-0.3480028571428573</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1264967352171638</v>
+        <v>-0.1208843182161754</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2215061219256935</v>
+        <v>-0.2271185389266819</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -856,10 +852,10 @@
         <v>-0.3916640476190478</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.126915021978022</v>
+        <v>-0.1210219841269842</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2647490256410259</v>
+        <v>-0.2706420634920637</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -873,10 +869,10 @@
         <v>-0.4358571904761907</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1273333087388802</v>
+        <v>-0.1211596500377929</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3085238817373105</v>
+        <v>-0.3146975404383978</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -890,10 +886,10 @@
         <v>-0.4851248571428575</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1277515954997384</v>
+        <v>-0.1212973159486017</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3573732616431191</v>
+        <v>-0.3638275411942558</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -907,10 +903,10 @@
         <v>-0.5339238571428574</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1281698822605965</v>
+        <v>-0.1214349818594105</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4057539748822608</v>
+        <v>-0.4124888752834469</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -921,13 +917,13 @@
         <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5874580476190479</v>
+        <v>-0.587458047619048</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1285881690214547</v>
+        <v>-0.1215726477702192</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4588698785975931</v>
+        <v>-0.4658853998488287</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -941,10 +937,10 @@
         <v>-0.6493949523809526</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1290064557823129</v>
+        <v>-0.121710313681028</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5203884965986396</v>
+        <v>-0.5276846386999245</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -958,10 +954,10 @@
         <v>-0.7071283809523813</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1294247425431711</v>
+        <v>-0.1218479795918368</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5777036384092102</v>
+        <v>-0.5852804013605445</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -972,13 +968,13 @@
         <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.7599910952380956</v>
+        <v>-0.7599910952380957</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1298430293040293</v>
+        <v>-0.1219856455026456</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.6301480659340664</v>
+        <v>-0.6380054497354501</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -992,10 +988,10 @@
         <v>-0.8119270000000005</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1302613160648875</v>
+        <v>-0.1221233114134543</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6816656839351131</v>
+        <v>-0.6898036885865462</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1006,13 +1002,13 @@
         <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.8449947142857146</v>
+        <v>-0.8449947142857147</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1306796028257457</v>
+        <v>-0.1222609773242631</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.714315111459969</v>
+        <v>-0.7227337369614516</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1026,10 +1022,10 @@
         <v>-0.8689910000000005</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.1310978895866039</v>
+        <v>-0.1223986432350719</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.7378931104133967</v>
+        <v>-0.7465923567649286</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1043,10 +1039,10 @@
         <v>-0.8755862380952385</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.131516176347462</v>
+        <v>-0.1225363091458806</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.7440700617477765</v>
+        <v>-0.7530499289493578</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1060,10 +1056,10 @@
         <v>-0.8604556666666672</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1319344631083202</v>
+        <v>-0.1226739750566894</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.7285212035583469</v>
+        <v>-0.7377816916099778</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1077,10 +1073,10 @@
         <v>-0.8295920952380957</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1323527498691784</v>
+        <v>-0.1228116409674982</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6972393453689173</v>
+        <v>-0.7067804542705975</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1094,10 +1090,10 @@
         <v>-0.7902025714285719</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1327710366300366</v>
+        <v>-0.1229493068783069</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6574315347985352</v>
+        <v>-0.6672532645502649</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1111,10 +1107,10 @@
         <v>-0.7354730952380957</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1331893233908948</v>
+        <v>-0.1230869727891157</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.6022837718472008</v>
+        <v>-0.6123861224489799</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1125,13 +1121,13 @@
         <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.6744731428571431</v>
+        <v>-0.6744731428571432</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.133607610151753</v>
+        <v>-0.1232246386999245</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.5408655327053902</v>
+        <v>-0.5512485041572187</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1142,13 +1138,13 @@
         <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.6049987619047621</v>
+        <v>-0.6049987619047622</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1340258969126112</v>
+        <v>-0.1233623046107332</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4709728649921509</v>
+        <v>-0.4816364572940289</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1162,10 +1158,10 @@
         <v>-0.5432677619047622</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1344441836734694</v>
+        <v>-0.123499970521542</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.4088235782312928</v>
+        <v>-0.4197677913832202</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1179,10 +1175,10 @@
         <v>-0.4889336666666669</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1348624704343276</v>
+        <v>-0.1236376364323508</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3540711962323393</v>
+        <v>-0.3652960302343161</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1196,10 +1192,10 @@
         <v>-0.4363373333333335</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1352807571951858</v>
+        <v>-0.1237753023431596</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.3010565761381477</v>
+        <v>-0.312562030990174</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1210,13 +1206,13 @@
         <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3832000952380954</v>
+        <v>-0.3832000952380955</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.135699043956044</v>
+        <v>-0.1239129682539683</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2475010512820514</v>
+        <v>-0.2592871269841271</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1227,13 +1223,13 @@
         <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.3312630476190478</v>
+        <v>-0.3312630476190479</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1361173307169021</v>
+        <v>-0.1240506341647771</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1951457169021457</v>
+        <v>-0.2072124134542708</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1247,10 +1243,10 @@
         <v>-0.2887935714285716</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1365356174777603</v>
+        <v>-0.1241883000755859</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1522579539508113</v>
+        <v>-0.1646052713529858</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1264,10 +1260,10 @@
         <v>-0.2541944761904764</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1369539042386185</v>
+        <v>-0.1243259659863946</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1172405719518579</v>
+        <v>-0.1298685102040818</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1281,10 +1277,10 @@
         <v>-0.2331933809523812</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1373721909994767</v>
+        <v>-0.1244636318972034</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09582118995290445</v>
+        <v>-0.1087297490551778</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1298,10 +1294,10 @@
         <v>-0.2146633809523811</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1377904777603349</v>
+        <v>-0.1246012978080122</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.07687290319204618</v>
+        <v>-0.09006208314436893</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1315,10 +1311,10 @@
         <v>-0.1907955714285716</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1382087645211931</v>
+        <v>-0.1247389637188209</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.05258680690737849</v>
+        <v>-0.06605660770975062</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1332,10 +1328,10 @@
         <v>-0.1746640476190477</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1386270512820513</v>
+        <v>-0.1248766296296297</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03603699633699645</v>
+        <v>-0.04978741798941798</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1349,10 +1345,10 @@
         <v>-0.1605309523809524</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1390453380429095</v>
+        <v>-0.1250142955404385</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.02148561433804297</v>
+        <v>-0.03551665684051397</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1366,10 +1362,10 @@
         <v>-0.1512630952380952</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1394636248037676</v>
+        <v>-0.1251519614512472</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.01179947043432758</v>
+        <v>-0.02611113378684798</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1383,10 +1379,10 @@
         <v>-0.1479324761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1398819115646258</v>
+        <v>-0.125289627362056</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.008050564625850326</v>
+        <v>-0.02264284882842016</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1400,10 +1396,10 @@
         <v>-0.1438716666666667</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.140300198325484</v>
+        <v>-0.1254272932728648</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.00357146834118266</v>
+        <v>-0.01844437339380189</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1417,10 +1413,10 @@
         <v>-0.1344081904761905</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1407184850863422</v>
+        <v>-0.1255649591836736</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.006310294610151673</v>
+        <v>-0.00884323129251699</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1434,10 +1430,10 @@
         <v>-0.1280720000000001</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1411367718472004</v>
+        <v>-0.1257026250944823</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.01306477184720034</v>
+        <v>-0.002369374905517752</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1451,10 +1447,10 @@
         <v>-0.1268011904761906</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1415550586080586</v>
+        <v>-0.1258402910052911</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.01475386813186805</v>
+        <v>-0.0009608994708994734</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1468,10 +1464,10 @@
         <v>-0.1279970476190477</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1419733453689168</v>
+        <v>-0.1259779569160999</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.01397629774986911</v>
+        <v>-0.002019090702947812</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1485,10 +1481,10 @@
         <v>-0.134729</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.142391632129775</v>
+        <v>-0.1261156228269086</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.007662632129774943</v>
+        <v>-0.008613377173091408</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1502,10 +1498,10 @@
         <v>-0.1354658095238096</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1428099188906332</v>
+        <v>-0.1262532887377174</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.007344109366823559</v>
+        <v>-0.009212520786092193</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1519,10 +1515,10 @@
         <v>-0.1328680476190477</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1432282056514914</v>
+        <v>-0.1263909546485262</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.01036015803244367</v>
+        <v>-0.006477092970521542</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1536,10 +1532,10 @@
         <v>-0.1281327142857144</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1436464924123496</v>
+        <v>-0.1265286205593349</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.01551377812663518</v>
+        <v>-0.00160409372637943</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1550,13 +1546,13 @@
         <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1280696666666667</v>
+        <v>-0.1280696666666668</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1440647791732077</v>
+        <v>-0.1266662864701437</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.01599511250654098</v>
+        <v>-0.001403380196523057</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1570,10 +1566,10 @@
         <v>-0.1268039523809525</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1444830659340659</v>
+        <v>-0.1268039523809525</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.01767911355311344</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1587,10 +1583,10 @@
         <v>-0.1322710000000001</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1449013526949241</v>
+        <v>-0.1278536360544219</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.01263035269492396</v>
+        <v>-0.004417363945578262</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1604,10 +1600,10 @@
         <v>-0.136337761904762</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1453196394557823</v>
+        <v>-0.1289033197278913</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.008981877551020312</v>
+        <v>-0.007434442176870726</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1621,10 +1617,10 @@
         <v>-0.1384681904761905</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1457379262166405</v>
+        <v>-0.1299530034013607</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.007269735740449979</v>
+        <v>-0.008515187074829872</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1638,10 +1634,10 @@
         <v>-0.1393969523809525</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1461562129774987</v>
+        <v>-0.13100268707483</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.006759260596546246</v>
+        <v>-0.008394265306122417</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1655,10 +1651,10 @@
         <v>-0.1379984761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1465744997383569</v>
+        <v>-0.1320523707482994</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.00857602354788059</v>
+        <v>-0.005946105442176858</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1672,10 +1668,10 @@
         <v>-0.1385333333333334</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1469927864992151</v>
+        <v>-0.1331020544217688</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.008459453165881647</v>
+        <v>-0.005431278911564613</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1689,10 +1685,10 @@
         <v>-0.1444020000000001</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1474110732600732</v>
+        <v>-0.1341517380952382</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.003009073260073158</v>
+        <v>-0.01025026190476189</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1706,10 +1702,10 @@
         <v>-0.1483327142857144</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1478293600209314</v>
+        <v>-0.1352014217687076</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.0005033542647829292</v>
+        <v>-0.01313129251700679</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1723,10 +1719,10 @@
         <v>-0.147331380952381</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1482476467817896</v>
+        <v>-0.136251105442177</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0009162658294086246</v>
+        <v>-0.01108027551020405</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1740,10 +1736,10 @@
         <v>-0.1515281904761906</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1486659335426478</v>
+        <v>-0.1373007891156464</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.002862256933542751</v>
+        <v>-0.01422740136054423</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1757,10 +1753,10 @@
         <v>-0.1453942857142858</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.149084220303506</v>
+        <v>-0.1383504727891157</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.003689934589220206</v>
+        <v>-0.007043812925170062</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1774,10 +1770,10 @@
         <v>-0.1455317142857144</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1495025070643642</v>
+        <v>-0.1394001564625851</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.00397079277864984</v>
+        <v>-0.006131557823129241</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1791,10 +1787,10 @@
         <v>-0.1485972857142858</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1499207938252224</v>
+        <v>-0.1404498401360545</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.001323508110936567</v>
+        <v>-0.008147445578231299</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1808,10 +1804,10 @@
         <v>-0.1498639523809525</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1503390805860806</v>
+        <v>-0.1414995238095239</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.000475128205128128</v>
+        <v>-0.00836442857142855</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1825,10 +1821,10 @@
         <v>-0.1542649047619049</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1507573673469388</v>
+        <v>-0.1425492074829933</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003507537414966067</v>
+        <v>-0.01171569727891159</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1842,10 +1838,10 @@
         <v>-0.164063142857143</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.151175654107797</v>
+        <v>-0.1435988911564627</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.01288748874934603</v>
+        <v>-0.02046425170068034</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1859,10 +1855,10 @@
         <v>-0.1610600000000001</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1515939408686552</v>
+        <v>-0.144648574829932</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.009466059131344989</v>
+        <v>-0.01641142517006811</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1876,10 +1872,10 @@
         <v>-0.1575961904761906</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1520122276295133</v>
+        <v>-0.1456982585034015</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.005583962846677282</v>
+        <v>-0.01189793197278916</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1893,10 +1889,10 @@
         <v>-0.1527954761904763</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1524305143903715</v>
+        <v>-0.1467479421768708</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.0003649618001048127</v>
+        <v>-0.006047534013605527</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1910,10 +1906,10 @@
         <v>-0.1496704761904763</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1528488011512297</v>
+        <v>-0.1477976258503402</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.003178324960753431</v>
+        <v>-0.001872850340136067</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1927,10 +1923,10 @@
         <v>-0.1556046666666667</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1532670879120879</v>
+        <v>-0.1488473095238096</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.002337578754578823</v>
+        <v>-0.006757357142857134</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1944,10 +1940,10 @@
         <v>-0.1614710476190477</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1536853746729461</v>
+        <v>-0.149896993197279</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.007785672946101635</v>
+        <v>-0.01157405442176873</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1961,10 +1957,10 @@
         <v>-0.1714023809523811</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1541036614338043</v>
+        <v>-0.1509466768707484</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.01729871951857681</v>
+        <v>-0.02045570408163269</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1978,10 +1974,10 @@
         <v>-0.169266142857143</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1545219481946625</v>
+        <v>-0.1519963605442178</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.0147441946624805</v>
+        <v>-0.01726978231292522</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1995,10 +1991,10 @@
         <v>-0.1649928095238097</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1549402349555207</v>
+        <v>-0.1530460442176872</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.01005257456828898</v>
+        <v>-0.01194676530612249</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2012,10 +2008,10 @@
         <v>-0.1586616666666668</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1553585217163789</v>
+        <v>-0.1540957278911566</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.003303144950287884</v>
+        <v>-0.004565938775510231</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2029,10 +2025,10 @@
         <v>-0.1573275714285715</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.155776808477237</v>
+        <v>-0.1551454115646259</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.001550762951334439</v>
+        <v>-0.002182159863945543</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2046,10 +2042,10 @@
         <v>-0.1561950952380953</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1561950952380952</v>
+        <v>-0.1561950952380953</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2077,10 +2073,10 @@
         <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1657316190476192</v>
+        <v>-0.1657316190476191</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1657316190476192</v>
+        <v>-0.1657316190476191</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2128,10 +2124,10 @@
         <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1862012380952381</v>
+        <v>-0.1862012380952382</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1862012380952381</v>
+        <v>-0.1862012380952382</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2219,7 +2215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,7 +2224,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2248,7 +2244,7 @@
         <v>-0.228</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.7440700617477765</v>
+        <v>-0.7530499289493578</v>
       </c>
     </row>
     <row r="3">
@@ -2256,23 +2252,15 @@
         <v>-0.336</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.007344109366823559</v>
+        <v>-0.009212520786092193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.416</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.002862256933542751</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.01729871951857681</v>
+        <v>-0.02046425170068034</v>
       </c>
     </row>
   </sheetData>
